--- a/backend/data/data.xlsx
+++ b/backend/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daidu\Projects\slide-generation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daidu\Projects\slide-generation\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEA0887-BD85-4E73-B89F-7BC3320EF086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674C5A2-8333-4B25-B77C-8B84DA818D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27420" yWindow="2340" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>{hoten}</t>
   </si>
@@ -60,7 +60,10 @@
     <t>{linkanh}</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hp9FtSYfsljTypIN6KMbea4PNcqBAI78/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1KvFLraKUC9QDM7ik1IMYR6I4mR-RUp11</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mpN6O4IrFWFhuljnZa4AoVziasHLyYCM</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -451,13 +454,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{EE3AF958-102C-4804-8FC5-57AE8F148BD9}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{4193B5CF-28DA-406A-BCD3-B6E9BEF3BFEA}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{856F0EE3-2574-4DA0-97B1-612EDE2749CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
